--- a/planning/Excels/Templates/CmxNitrospira_template.xlsx
+++ b/planning/Excels/Templates/CmxNitrospira_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F283FE-19D0-4574-9574-6C0D65F03CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55FD11-73FD-4E88-B63A-BCB0E6D51C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="ThermoParam" sheetId="24" r:id="rId11"/>
     <sheet name="Ks" sheetId="31" r:id="rId12"/>
     <sheet name="Ki" sheetId="32" r:id="rId13"/>
-    <sheet name="Yield" sheetId="33" r:id="rId14"/>
+    <sheet name="Yield-Mu" sheetId="33" r:id="rId14"/>
     <sheet name="ReactionMatrix" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2980,7 +2980,7 @@
     <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -3202,7 +3202,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3211,7 +3211,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3265,16 +3265,10 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="37" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
@@ -3292,7 +3286,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="46" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3325,15 +3319,10 @@
     <xf numFmtId="11" fontId="25" fillId="11" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3354,9 +3343,6 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3402,9 +3388,6 @@
     <xf numFmtId="2" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="41" fillId="12" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3510,9 +3493,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3537,7 +3517,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3572,21 +3551,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="11" borderId="54" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3665,7 +3640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4651,47 +4626,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="215" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="216" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="214" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="213" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="209" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="208" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="210" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="211" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="212" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4726,7 +4701,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -4742,130 +4717,126 @@
     <col min="8" max="16384" width="11.44140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="129">
+      <c r="B1" s="127">
         <f>Influent!B1</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="265" t="s">
+      <c r="D1" s="254" t="s">
         <v>221</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="129">
+      <c r="B2" s="127">
         <f>Influent!B2</f>
         <v>3.7500000000000001E-4</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="265"/>
+      <c r="D2" s="254"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="127">
         <f>Influent!B3</f>
         <v>9.9999999999999995E-21</v>
       </c>
       <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="265"/>
+      <c r="D3" s="254"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="127">
         <f>1*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="254"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="127">
         <v>1E-3</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="265"/>
+      <c r="D5" s="254"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="131">
         <f>B1/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="265"/>
+      <c r="D6" s="254"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="s">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="143">
         <v>1E-10</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="265"/>
+      <c r="D7" s="254"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" s="69"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="143"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="72"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -4874,7 +4845,7 @@
       <c r="F10" s="69"/>
       <c r="G10" s="94"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="69"/>
     </row>
   </sheetData>
@@ -4904,25 +4875,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="153" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="154" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4930,28 +4901,28 @@
       <c r="A2" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="168">
+      <c r="C2" s="162">
         <v>-79.37</v>
       </c>
-      <c r="D2" s="168">
+      <c r="D2" s="162">
         <v>-26.57</v>
       </c>
-      <c r="E2" s="168" t="s">
+      <c r="E2" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="165">
+      <c r="G2" s="159">
         <v>3</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="155" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="265" t="s">
+      <c r="I2" s="254" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4959,262 +4930,262 @@
       <c r="A3" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="168">
+      <c r="C3" s="162">
         <v>-50.6</v>
       </c>
-      <c r="D3" s="168">
+      <c r="D3" s="162">
         <v>-32.200000000000003</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="166">
+      <c r="G3" s="160">
         <v>2</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="265"/>
+      <c r="I3" s="254"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="162">
         <v>-103.7</v>
       </c>
-      <c r="D4" s="168">
+      <c r="D4" s="162">
         <v>-111.3</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="166">
+      <c r="G4" s="160">
         <v>2</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="265"/>
+      <c r="I4" s="254"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="162">
         <v>16.399999999999999</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="168" t="s">
+      <c r="F5" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="166">
+      <c r="G5" s="160">
         <v>2</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="H5" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="265"/>
+      <c r="I5" s="254"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="162">
         <f>-386</f>
         <v>-386</v>
       </c>
-      <c r="C6" s="168">
+      <c r="C6" s="162">
         <v>-623.16</v>
       </c>
-      <c r="D6" s="168">
+      <c r="D6" s="162">
         <v>-586.85</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="162">
         <v>-527.79999999999995</v>
       </c>
-      <c r="F6" s="168" t="s">
+      <c r="F6" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="166">
+      <c r="G6" s="160">
         <v>3</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="265"/>
+      <c r="I6" s="254"/>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="172">
+      <c r="C7" s="165">
         <v>-755.9</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="165">
         <f>-180.69*4.184</f>
         <v>-756.00696000000005</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="165">
         <f>-177.97*4.184</f>
         <v>-744.62648000000002</v>
       </c>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="167">
+      <c r="G7" s="161">
         <v>4</v>
       </c>
       <c r="H7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="265"/>
+      <c r="I7" s="254"/>
     </row>
     <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="174">
-        <v>0</v>
-      </c>
-      <c r="D8" s="174" t="s">
+      <c r="C8" s="167">
+        <v>0</v>
+      </c>
+      <c r="D8" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="175" t="s">
+      <c r="F8" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="187">
         <v>2</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="265"/>
+      <c r="I8" s="254"/>
     </row>
     <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="174">
-        <v>0</v>
-      </c>
-      <c r="D9" s="174" t="s">
+      <c r="C9" s="167">
+        <v>0</v>
+      </c>
+      <c r="D9" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="174" t="s">
+      <c r="E9" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="F9" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="194">
+      <c r="G9" s="187">
         <v>2</v>
       </c>
       <c r="H9" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="265"/>
+      <c r="I9" s="254"/>
     </row>
     <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="166">
         <v>-237.18</v>
       </c>
-      <c r="D10" s="173">
+      <c r="D10" s="166">
         <v>-157.30000000000001</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="173" t="s">
+      <c r="F10" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="193">
+      <c r="G10" s="186">
         <v>2</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="265"/>
+      <c r="I10" s="254"/>
     </row>
     <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="168">
-        <v>0</v>
-      </c>
-      <c r="D11" s="168" t="s">
+      <c r="C11" s="162">
+        <v>0</v>
+      </c>
+      <c r="D11" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="168" t="s">
+      <c r="E11" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="168" t="s">
+      <c r="F11" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="167">
+      <c r="G11" s="161">
         <v>2</v>
       </c>
       <c r="H11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="265"/>
+      <c r="I11" s="254"/>
     </row>
     <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="157" t="s">
         <v>232</v>
       </c>
       <c r="H12" s="72"/>
@@ -5223,24 +5194,24 @@
       <c r="A13" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="104">
         <f>IF(COUNT(B2,C2)=2, EXP(($C$10+B2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="101">
         <f>IF(COUNT(C2,D2)=2, EXP((D2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.9083870641861443E-10</v>
       </c>
-      <c r="D13" s="169">
+      <c r="D13" s="104">
         <f>IF(COUNT(D2,E2)=2, EXP((E2-D2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="169">
+      <c r="E13" s="104">
         <f>IF(COUNT(E2,F2)=2, EXP((F2-E2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="264" t="s">
+      <c r="I13" s="253" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5248,170 +5219,170 @@
       <c r="A14" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="169">
+      <c r="B14" s="104">
         <f>IF(COUNT(B3,C3)=2, EXP(($C$10+B3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="153">
+      <c r="C14" s="101">
         <f>IF(COUNT(C3,D3)=2, EXP((D3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.2656707191475868E-4</v>
       </c>
-      <c r="D14" s="169">
+      <c r="D14" s="104">
         <f>IF(COUNT(D3,E3)=2, EXP((E3-D3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="169">
+      <c r="E14" s="104">
         <f>IF(COUNT(E3,F3)=2, EXP((F3-E3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="264"/>
+      <c r="I14" s="253"/>
     </row>
     <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="169">
+      <c r="B15" s="104">
         <f>IF(COUNT(B4,C4)=2, EXP(($C$10+B4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="153">
+      <c r="C15" s="101">
         <f>IF(COUNT(C4,D4)=2, EXP((D4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>22.603837077490315</v>
       </c>
-      <c r="D15" s="169">
+      <c r="D15" s="104">
         <f>IF(COUNT(D4,E4)=2, EXP((E4-D4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="169">
+      <c r="E15" s="104">
         <f>IF(COUNT(E4,F4)=2, EXP((F4-E4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="264"/>
+      <c r="I15" s="253"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="169">
+      <c r="B16" s="104">
         <f>IF(COUNT(B5,C5)=2, EXP(($C$10+B5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="169">
+      <c r="C16" s="104">
         <f>IF(COUNT(C5,D5)=2, EXP((D5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="169">
+      <c r="D16" s="104">
         <f>IF(COUNT(D5,E5)=2, EXP((E5-D5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="169">
+      <c r="E16" s="104">
         <f>IF(COUNT(E5,F5)=2, EXP((F5-E5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="264"/>
+      <c r="I16" s="253"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="170">
+      <c r="B17" s="163">
         <f>1/0.0017</f>
         <v>588.23529411764707</v>
       </c>
-      <c r="C17" s="153">
+      <c r="C17" s="101">
         <f>IF(COUNT(C6,D6)=2, EXP((D6-C6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.3901312221699524E-7</v>
       </c>
-      <c r="D17" s="153">
+      <c r="D17" s="101">
         <f>IF(COUNT(D6,E6)=2, EXP((E6-D6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.008575507210982E-11</v>
       </c>
-      <c r="E17" s="169">
+      <c r="E17" s="104">
         <f>IF(COUNT(E6,F6)=2, EXP((F6-E6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="71"/>
-      <c r="I17" s="264"/>
+      <c r="I17" s="253"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="178">
+      <c r="B18" s="171">
         <f>IF(COUNT(B7,C7)=2, EXP(($C$10+B7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="191">
+      <c r="C18" s="184">
         <v>100</v>
       </c>
-      <c r="D18" s="192">
+      <c r="D18" s="185">
         <f>10^(-1.92)</f>
         <v>1.2022644346174125E-2</v>
       </c>
-      <c r="E18" s="179">
+      <c r="E18" s="172">
         <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="264"/>
+      <c r="I18" s="253"/>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="189">
+      <c r="B19" s="182">
         <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="190">
+      <c r="C19" s="183">
         <f>IF(COUNT(C8,D8)=2, EXP((D8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="190">
+      <c r="D19" s="183">
         <f>IF(COUNT(D8,E8)=2, EXP((E8-D8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="190">
+      <c r="E19" s="183">
         <f>IF(COUNT(E8,F8)=2, EXP((F8-E8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="71"/>
       <c r="H19" s="71"/>
-      <c r="I19" s="264"/>
+      <c r="I19" s="253"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="180">
+      <c r="B20" s="173">
         <f>IF(COUNT(B9,C9)=2, EXP(($C$10+B9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="174">
         <f>IF(COUNT(C9,D9)=2, EXP((D9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="181">
+      <c r="D20" s="174">
         <f>IF(COUNT(D9,E9)=2, EXP((E9-D9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="181">
+      <c r="E20" s="174">
         <f>IF(COUNT(E9,F9)=2, EXP((F9-E9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="264"/>
+      <c r="I20" s="253"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="177">
+      <c r="B21" s="170">
         <f>IF(COUNT(B10,C10)=2, EXP(($C$10+B10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
@@ -5419,71 +5390,71 @@
         <f>IF(COUNT(C10,D10)=2, EXP((D10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.845648305092005E-15</v>
       </c>
-      <c r="D21" s="177">
+      <c r="D21" s="170">
         <f>IF(COUNT(D10,E10)=2, EXP((E10-D10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E21" s="170">
         <f>IF(COUNT(E10,F10)=2, EXP((F10-E10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="264"/>
+      <c r="I21" s="253"/>
     </row>
     <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="169">
+      <c r="B22" s="104">
         <f>IF(COUNT(B11,C11)=2, EXP(($C$10+B11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="169">
+      <c r="C22" s="104">
         <f>IF(COUNT(C11,D11)=2, EXP((D11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="169">
+      <c r="D22" s="104">
         <f>IF(COUNT(D11,E11)=2, EXP((E11-D11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="169">
+      <c r="E22" s="104">
         <f>IF(COUNT(E11,F11)=2, EXP((F11-E11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="264"/>
+      <c r="I22" s="253"/>
     </row>
     <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="266" t="s">
+      <c r="A23" s="255" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="267"/>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="267"/>
-      <c r="F23" s="268"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="257"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="171">
+      <c r="C24" s="164">
         <v>1</v>
       </c>
-      <c r="D24" s="171">
-        <v>0</v>
-      </c>
-      <c r="E24" s="171" t="s">
+      <c r="D24" s="164">
+        <v>0</v>
+      </c>
+      <c r="E24" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="171" t="s">
+      <c r="F24" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="264" t="s">
+      <c r="I24" s="253" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5491,190 +5462,190 @@
       <c r="A25" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="171">
-        <v>0</v>
-      </c>
-      <c r="D25" s="171">
+      <c r="C25" s="164">
+        <v>0</v>
+      </c>
+      <c r="D25" s="164">
         <v>-1</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="264"/>
+      <c r="I25" s="253"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="171" t="s">
+      <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="171">
-        <v>0</v>
-      </c>
-      <c r="D26" s="171">
+      <c r="C26" s="164">
+        <v>0</v>
+      </c>
+      <c r="D26" s="164">
         <v>-1</v>
       </c>
-      <c r="E26" s="171" t="s">
+      <c r="E26" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="171" t="s">
+      <c r="F26" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="264"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="171">
-        <v>0</v>
-      </c>
-      <c r="D27" s="171" t="s">
+      <c r="C27" s="164">
+        <v>0</v>
+      </c>
+      <c r="D27" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="171" t="s">
+      <c r="E27" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="171" t="s">
+      <c r="F27" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="264"/>
+      <c r="I27" s="253"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="171">
-        <v>0</v>
-      </c>
-      <c r="C28" s="171">
-        <v>0</v>
-      </c>
-      <c r="D28" s="171">
+      <c r="B28" s="164">
+        <v>0</v>
+      </c>
+      <c r="C28" s="164">
+        <v>0</v>
+      </c>
+      <c r="D28" s="164">
         <v>-1</v>
       </c>
-      <c r="E28" s="171">
+      <c r="E28" s="164">
         <v>-2</v>
       </c>
-      <c r="F28" s="171" t="s">
+      <c r="F28" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="264"/>
+      <c r="I28" s="253"/>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="183" t="s">
+      <c r="B29" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="184">
-        <v>0</v>
-      </c>
-      <c r="D29" s="184">
+      <c r="C29" s="177">
+        <v>0</v>
+      </c>
+      <c r="D29" s="177">
         <v>-1</v>
       </c>
-      <c r="E29" s="184">
+      <c r="E29" s="177">
         <v>-2</v>
       </c>
-      <c r="F29" s="184" t="s">
+      <c r="F29" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="264"/>
+      <c r="I29" s="253"/>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="188">
+      <c r="C30" s="181">
         <v>1</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="188" t="s">
+      <c r="E30" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="188" t="s">
+      <c r="F30" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="264"/>
+      <c r="I30" s="253"/>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="186">
-        <v>0</v>
-      </c>
-      <c r="D31" s="186" t="s">
+      <c r="C31" s="179">
+        <v>0</v>
+      </c>
+      <c r="D31" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="186" t="s">
+      <c r="E31" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="264"/>
+      <c r="I31" s="253"/>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="182">
-        <v>0</v>
-      </c>
-      <c r="D32" s="182">
+      <c r="C32" s="175">
+        <v>0</v>
+      </c>
+      <c r="D32" s="175">
         <v>-1</v>
       </c>
-      <c r="E32" s="182" t="s">
+      <c r="E32" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="182" t="s">
+      <c r="F32" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="264"/>
+      <c r="I32" s="253"/>
     </row>
     <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="171">
+      <c r="C33" s="164">
         <v>1</v>
       </c>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="171" t="s">
+      <c r="E33" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="171" t="s">
+      <c r="F33" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="264"/>
+      <c r="I33" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5722,19 +5693,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="258" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5742,113 +5713,113 @@
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="153">
+      <c r="B2" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C2" s="153">
-        <v>0</v>
-      </c>
-      <c r="D2" s="153">
-        <v>0</v>
-      </c>
-      <c r="E2" s="153">
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101">
+        <v>0</v>
+      </c>
+      <c r="E2" s="101">
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F2" s="269"/>
+      <c r="F2" s="258"/>
     </row>
     <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="153">
-        <v>0</v>
-      </c>
-      <c r="C3" s="153">
+      <c r="B3" s="101">
+        <v>0</v>
+      </c>
+      <c r="C3" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D3" s="153">
-        <v>0</v>
-      </c>
-      <c r="E3" s="153">
+      <c r="D3" s="101">
+        <v>0</v>
+      </c>
+      <c r="E3" s="101">
         <f t="shared" ref="E3:E6" si="0">(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F3" s="269"/>
+      <c r="F3" s="258"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="153">
-        <v>0</v>
-      </c>
-      <c r="E4" s="153">
-        <v>0</v>
-      </c>
-      <c r="F4" s="269"/>
+      <c r="D4" s="101">
+        <v>0</v>
+      </c>
+      <c r="E4" s="101">
+        <v>0</v>
+      </c>
+      <c r="F4" s="258"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="153">
-        <v>0</v>
-      </c>
-      <c r="D5" s="153">
-        <v>0</v>
-      </c>
-      <c r="E5" s="153">
+      <c r="C5" s="101">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101">
+        <v>0</v>
+      </c>
+      <c r="E5" s="101">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F5" s="269"/>
+      <c r="F5" s="258"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="153">
+      <c r="B6" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C6" s="153">
-        <v>0</v>
-      </c>
-      <c r="D6" s="153">
+      <c r="C6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E6" s="153">
+      <c r="E6" s="101">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F6" s="269"/>
+      <c r="F6" s="258"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C7" s="153">
+      <c r="C7" s="101">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D7" s="153">
-        <v>0</v>
-      </c>
-      <c r="E7" s="153">
-        <v>0</v>
-      </c>
-      <c r="F7" s="269"/>
+      <c r="D7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0</v>
+      </c>
+      <c r="F7" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5888,16 +5859,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="269" t="s">
+      <c r="E1" s="258" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5905,92 +5876,92 @@
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="153">
-        <v>0</v>
-      </c>
-      <c r="C2" s="153">
-        <v>0</v>
-      </c>
-      <c r="D2" s="153">
-        <v>0</v>
-      </c>
-      <c r="E2" s="269"/>
+      <c r="B2" s="101">
+        <v>0</v>
+      </c>
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101">
+        <v>0</v>
+      </c>
+      <c r="E2" s="258"/>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="153">
-        <v>0</v>
-      </c>
-      <c r="C3" s="153">
-        <v>0</v>
-      </c>
-      <c r="D3" s="153">
-        <v>0</v>
-      </c>
-      <c r="E3" s="269"/>
+      <c r="B3" s="101">
+        <v>0</v>
+      </c>
+      <c r="C3" s="101">
+        <v>0</v>
+      </c>
+      <c r="D3" s="101">
+        <v>0</v>
+      </c>
+      <c r="E3" s="258"/>
     </row>
     <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="153">
-        <v>0</v>
-      </c>
-      <c r="C4" s="153">
-        <v>0</v>
-      </c>
-      <c r="D4" s="153">
+      <c r="B4" s="101">
+        <v>0</v>
+      </c>
+      <c r="C4" s="101">
+        <v>0</v>
+      </c>
+      <c r="D4" s="101">
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="E4" s="269"/>
+      <c r="E4" s="258"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="153">
-        <v>0</v>
-      </c>
-      <c r="C5" s="153">
-        <v>0</v>
-      </c>
-      <c r="D5" s="153">
-        <v>0</v>
-      </c>
-      <c r="E5" s="269"/>
+      <c r="B5" s="101">
+        <v>0</v>
+      </c>
+      <c r="C5" s="101">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101">
+        <v>0</v>
+      </c>
+      <c r="E5" s="258"/>
     </row>
     <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="153">
-        <v>0</v>
-      </c>
-      <c r="C6" s="153">
-        <v>0</v>
-      </c>
-      <c r="D6" s="153">
-        <v>0</v>
-      </c>
-      <c r="E6" s="269"/>
+      <c r="B6" s="101">
+        <v>0</v>
+      </c>
+      <c r="C6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101">
+        <v>0</v>
+      </c>
+      <c r="E6" s="258"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="153">
-        <v>0</v>
-      </c>
-      <c r="C7" s="153">
-        <v>0</v>
-      </c>
-      <c r="D7" s="153">
-        <v>0</v>
-      </c>
-      <c r="E7" s="269"/>
+      <c r="B7" s="101">
+        <v>0</v>
+      </c>
+      <c r="C7" s="101">
+        <v>0</v>
+      </c>
+      <c r="D7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="258"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6014,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765FFA51-252D-42F9-AC75-BD3B676D8AD2}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6029,16 +6000,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="147" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="147" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="147" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6046,20 +6017,20 @@
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="153">
+      <c r="B2" s="101">
         <f>0.0409</f>
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="155">
+      <c r="D2" s="149">
         <v>1E-3</v>
       </c>
-      <c r="E2" s="239">
+      <c r="E2" s="228">
         <v>0.01</v>
       </c>
-      <c r="F2" s="264" t="s">
+      <c r="F2" s="253" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6067,91 +6038,91 @@
       <c r="A3" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="153">
+      <c r="B3" s="101">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="155">
+      <c r="D3" s="149">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="240">
+      <c r="E3" s="229">
         <v>0.01</v>
       </c>
-      <c r="F3" s="264"/>
+      <c r="F3" s="253"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="101">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="155">
+      <c r="D4" s="149">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="240">
+      <c r="E4" s="229">
         <v>0.01</v>
       </c>
-      <c r="F4" s="264"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="101">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="149">
         <v>1E-3</v>
       </c>
-      <c r="E5" s="240">
+      <c r="E5" s="229">
         <v>0.01</v>
       </c>
-      <c r="F5" s="264"/>
+      <c r="F5" s="253"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="153">
+      <c r="B6" s="101">
         <v>1.67E-2</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="149">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="240">
+      <c r="E6" s="229">
         <v>0.01</v>
       </c>
-      <c r="F6" s="264"/>
+      <c r="F6" s="253"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="153">
+      <c r="B7" s="101">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="149">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="240">
+      <c r="E7" s="229">
         <v>0.01</v>
       </c>
-      <c r="F7" s="264"/>
+      <c r="F7" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6188,91 +6159,91 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="272" t="s">
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="261" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="270"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="270" t="s">
+      <c r="F1" s="259"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="270"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="270" t="s">
+      <c r="I1" s="259"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="270" t="s">
+      <c r="L1" s="259"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="259" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="270"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="270" t="s">
+      <c r="O1" s="259"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="259" t="s">
         <v>281</v>
       </c>
-      <c r="R1" s="270"/>
-      <c r="S1" s="271"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="260"/>
     </row>
     <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="196" t="s">
+      <c r="E2" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="197" t="s">
+      <c r="H2" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="198" t="s">
+      <c r="J2" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="197" t="s">
+      <c r="K2" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="197" t="s">
+      <c r="L2" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="198" t="s">
+      <c r="M2" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="197" t="s">
+      <c r="N2" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="197" t="s">
+      <c r="O2" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="198" t="s">
+      <c r="P2" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="197" t="s">
+      <c r="Q2" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="197" t="s">
+      <c r="R2" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="198" t="s">
+      <c r="S2" s="191" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6280,58 +6251,58 @@
       <c r="A3" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="202">
+      <c r="B3" s="195">
         <v>-1</v>
       </c>
       <c r="C3" s="103">
         <v>0</v>
       </c>
-      <c r="D3" s="203">
-        <v>0</v>
-      </c>
-      <c r="E3" s="202">
+      <c r="D3" s="196">
+        <v>0</v>
+      </c>
+      <c r="E3" s="195">
         <v>0</v>
       </c>
       <c r="F3" s="103">
         <v>0</v>
       </c>
-      <c r="G3" s="203">
-        <v>0</v>
-      </c>
-      <c r="H3" s="202">
+      <c r="G3" s="196">
+        <v>0</v>
+      </c>
+      <c r="H3" s="195">
         <v>-1</v>
       </c>
       <c r="I3" s="103">
         <v>0</v>
       </c>
-      <c r="J3" s="203">
-        <v>0</v>
-      </c>
-      <c r="K3" s="202">
+      <c r="J3" s="196">
+        <v>0</v>
+      </c>
+      <c r="K3" s="195">
         <v>-1</v>
       </c>
       <c r="L3" s="103">
         <v>0</v>
       </c>
-      <c r="M3" s="203">
-        <v>0</v>
-      </c>
-      <c r="N3" s="202">
+      <c r="M3" s="196">
+        <v>0</v>
+      </c>
+      <c r="N3" s="195">
         <v>-1</v>
       </c>
       <c r="O3" s="103">
         <v>0</v>
       </c>
-      <c r="P3" s="203">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="202">
+      <c r="P3" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="195">
         <v>-1</v>
       </c>
       <c r="R3" s="103">
         <v>0</v>
       </c>
-      <c r="S3" s="203">
+      <c r="S3" s="196">
         <v>0</v>
       </c>
     </row>
@@ -6339,58 +6310,58 @@
       <c r="A4" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="204">
+      <c r="B4" s="197">
         <v>1</v>
       </c>
-      <c r="C4" s="205">
-        <v>0</v>
-      </c>
-      <c r="D4" s="206">
-        <v>0</v>
-      </c>
-      <c r="E4" s="204">
+      <c r="C4" s="148">
+        <v>0</v>
+      </c>
+      <c r="D4" s="198">
+        <v>0</v>
+      </c>
+      <c r="E4" s="197">
         <v>-1</v>
       </c>
-      <c r="F4" s="205">
-        <v>0</v>
-      </c>
-      <c r="G4" s="206">
-        <v>0</v>
-      </c>
-      <c r="H4" s="204">
+      <c r="F4" s="148">
+        <v>0</v>
+      </c>
+      <c r="G4" s="198">
+        <v>0</v>
+      </c>
+      <c r="H4" s="197">
         <v>-1</v>
       </c>
-      <c r="I4" s="205">
-        <v>0</v>
-      </c>
-      <c r="J4" s="206">
-        <v>0</v>
-      </c>
-      <c r="K4" s="204">
-        <v>0</v>
-      </c>
-      <c r="L4" s="205">
-        <v>0</v>
-      </c>
-      <c r="M4" s="206">
-        <v>0</v>
-      </c>
-      <c r="N4" s="204">
+      <c r="I4" s="148">
+        <v>0</v>
+      </c>
+      <c r="J4" s="198">
+        <v>0</v>
+      </c>
+      <c r="K4" s="197">
+        <v>0</v>
+      </c>
+      <c r="L4" s="148">
+        <v>0</v>
+      </c>
+      <c r="M4" s="198">
+        <v>0</v>
+      </c>
+      <c r="N4" s="197">
         <v>2</v>
       </c>
-      <c r="O4" s="205">
-        <v>0</v>
-      </c>
-      <c r="P4" s="206">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="204">
+      <c r="O4" s="148">
+        <v>0</v>
+      </c>
+      <c r="P4" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="197">
         <v>-1</v>
       </c>
-      <c r="R4" s="205">
-        <v>0</v>
-      </c>
-      <c r="S4" s="206">
+      <c r="R4" s="148">
+        <v>0</v>
+      </c>
+      <c r="S4" s="198">
         <v>0</v>
       </c>
     </row>
@@ -6398,58 +6369,58 @@
       <c r="A5" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="204">
-        <v>0</v>
-      </c>
-      <c r="C5" s="205">
-        <v>0</v>
-      </c>
-      <c r="D5" s="206">
-        <v>0</v>
-      </c>
-      <c r="E5" s="204">
+      <c r="B5" s="197">
+        <v>0</v>
+      </c>
+      <c r="C5" s="148">
+        <v>0</v>
+      </c>
+      <c r="D5" s="198">
+        <v>0</v>
+      </c>
+      <c r="E5" s="197">
         <v>1</v>
       </c>
-      <c r="F5" s="205">
-        <v>0</v>
-      </c>
-      <c r="G5" s="206">
-        <v>0</v>
-      </c>
-      <c r="H5" s="204">
-        <v>0</v>
-      </c>
-      <c r="I5" s="205">
-        <v>0</v>
-      </c>
-      <c r="J5" s="206">
-        <v>0</v>
-      </c>
-      <c r="K5" s="204">
+      <c r="F5" s="148">
+        <v>0</v>
+      </c>
+      <c r="G5" s="198">
+        <v>0</v>
+      </c>
+      <c r="H5" s="197">
+        <v>0</v>
+      </c>
+      <c r="I5" s="148">
+        <v>0</v>
+      </c>
+      <c r="J5" s="198">
+        <v>0</v>
+      </c>
+      <c r="K5" s="197">
         <v>1</v>
       </c>
-      <c r="L5" s="205">
-        <v>0</v>
-      </c>
-      <c r="M5" s="206">
-        <v>0</v>
-      </c>
-      <c r="N5" s="204">
+      <c r="L5" s="148">
+        <v>0</v>
+      </c>
+      <c r="M5" s="198">
+        <v>0</v>
+      </c>
+      <c r="N5" s="197">
         <v>-1</v>
       </c>
-      <c r="O5" s="205">
-        <v>0</v>
-      </c>
-      <c r="P5" s="206">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="204">
-        <v>0</v>
-      </c>
-      <c r="R5" s="205">
-        <v>0</v>
-      </c>
-      <c r="S5" s="206">
+      <c r="O5" s="148">
+        <v>0</v>
+      </c>
+      <c r="P5" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="197">
+        <v>0</v>
+      </c>
+      <c r="R5" s="148">
+        <v>0</v>
+      </c>
+      <c r="S5" s="198">
         <v>0</v>
       </c>
     </row>
@@ -6457,58 +6428,58 @@
       <c r="A6" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="204">
+      <c r="B6" s="197">
         <v>-1.5</v>
       </c>
-      <c r="C6" s="205">
-        <v>0</v>
-      </c>
-      <c r="D6" s="206">
-        <v>0</v>
-      </c>
-      <c r="E6" s="204">
+      <c r="C6" s="148">
+        <v>0</v>
+      </c>
+      <c r="D6" s="198">
+        <v>0</v>
+      </c>
+      <c r="E6" s="197">
         <v>-0.5</v>
       </c>
-      <c r="F6" s="205">
-        <v>0</v>
-      </c>
-      <c r="G6" s="206">
-        <v>0</v>
-      </c>
-      <c r="H6" s="204">
-        <v>0</v>
-      </c>
-      <c r="I6" s="205">
-        <v>0</v>
-      </c>
-      <c r="J6" s="206">
-        <v>0</v>
-      </c>
-      <c r="K6" s="204">
+      <c r="F6" s="148">
+        <v>0</v>
+      </c>
+      <c r="G6" s="198">
+        <v>0</v>
+      </c>
+      <c r="H6" s="197">
+        <v>0</v>
+      </c>
+      <c r="I6" s="148">
+        <v>0</v>
+      </c>
+      <c r="J6" s="198">
+        <v>0</v>
+      </c>
+      <c r="K6" s="197">
         <v>-2</v>
       </c>
-      <c r="L6" s="205">
-        <v>0</v>
-      </c>
-      <c r="M6" s="206">
-        <v>0</v>
-      </c>
-      <c r="N6" s="204">
+      <c r="L6" s="148">
+        <v>0</v>
+      </c>
+      <c r="M6" s="198">
+        <v>0</v>
+      </c>
+      <c r="N6" s="197">
         <v>-1</v>
       </c>
-      <c r="O6" s="205">
-        <v>0</v>
-      </c>
-      <c r="P6" s="206">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="204">
-        <v>0</v>
-      </c>
-      <c r="R6" s="205">
-        <v>0</v>
-      </c>
-      <c r="S6" s="206">
+      <c r="O6" s="148">
+        <v>0</v>
+      </c>
+      <c r="P6" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="197">
+        <v>0</v>
+      </c>
+      <c r="R6" s="148">
+        <v>0</v>
+      </c>
+      <c r="S6" s="198">
         <v>0</v>
       </c>
     </row>
@@ -6516,58 +6487,58 @@
       <c r="A7" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="204">
-        <v>0</v>
-      </c>
-      <c r="C7" s="205">
+      <c r="B7" s="197">
+        <v>0</v>
+      </c>
+      <c r="C7" s="148">
         <v>-1</v>
       </c>
-      <c r="D7" s="206">
+      <c r="D7" s="198">
         <v>1</v>
       </c>
-      <c r="E7" s="204">
-        <v>0</v>
-      </c>
-      <c r="F7" s="205">
+      <c r="E7" s="197">
+        <v>0</v>
+      </c>
+      <c r="F7" s="148">
         <v>-1</v>
       </c>
-      <c r="G7" s="206">
+      <c r="G7" s="198">
         <v>1</v>
       </c>
-      <c r="H7" s="204">
-        <v>0</v>
-      </c>
-      <c r="I7" s="205">
+      <c r="H7" s="197">
+        <v>0</v>
+      </c>
+      <c r="I7" s="148">
         <v>-1</v>
       </c>
-      <c r="J7" s="206">
+      <c r="J7" s="198">
         <v>1</v>
       </c>
-      <c r="K7" s="204">
-        <v>0</v>
-      </c>
-      <c r="L7" s="205">
+      <c r="K7" s="197">
+        <v>0</v>
+      </c>
+      <c r="L7" s="148">
         <v>-1</v>
       </c>
-      <c r="M7" s="206">
+      <c r="M7" s="198">
         <v>1</v>
       </c>
-      <c r="N7" s="204">
-        <v>0</v>
-      </c>
-      <c r="O7" s="205">
+      <c r="N7" s="197">
+        <v>0</v>
+      </c>
+      <c r="O7" s="148">
         <v>-1</v>
       </c>
-      <c r="P7" s="206">
+      <c r="P7" s="198">
         <v>1</v>
       </c>
-      <c r="Q7" s="204">
-        <v>0</v>
-      </c>
-      <c r="R7" s="205">
+      <c r="Q7" s="197">
+        <v>0</v>
+      </c>
+      <c r="R7" s="148">
         <v>-1</v>
       </c>
-      <c r="S7" s="206">
+      <c r="S7" s="198">
         <v>1</v>
       </c>
     </row>
@@ -6575,294 +6546,294 @@
       <c r="A8" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="207">
-        <v>0</v>
-      </c>
-      <c r="C8" s="199">
-        <v>0</v>
-      </c>
-      <c r="D8" s="208">
-        <v>0</v>
-      </c>
-      <c r="E8" s="207">
-        <v>0</v>
-      </c>
-      <c r="F8" s="199">
-        <v>0</v>
-      </c>
-      <c r="G8" s="208">
-        <v>0</v>
-      </c>
-      <c r="H8" s="207">
-        <v>0</v>
-      </c>
-      <c r="I8" s="199">
-        <v>0</v>
-      </c>
-      <c r="J8" s="208">
-        <v>0</v>
-      </c>
-      <c r="K8" s="207">
-        <v>0</v>
-      </c>
-      <c r="L8" s="199">
-        <v>0</v>
-      </c>
-      <c r="M8" s="208">
-        <v>0</v>
-      </c>
-      <c r="N8" s="207">
-        <v>0</v>
-      </c>
-      <c r="O8" s="199">
-        <v>0</v>
-      </c>
-      <c r="P8" s="208">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="207">
-        <v>0</v>
-      </c>
-      <c r="R8" s="199">
-        <v>0</v>
-      </c>
-      <c r="S8" s="208">
+      <c r="B8" s="199">
+        <v>0</v>
+      </c>
+      <c r="C8" s="192">
+        <v>0</v>
+      </c>
+      <c r="D8" s="200">
+        <v>0</v>
+      </c>
+      <c r="E8" s="199">
+        <v>0</v>
+      </c>
+      <c r="F8" s="192">
+        <v>0</v>
+      </c>
+      <c r="G8" s="200">
+        <v>0</v>
+      </c>
+      <c r="H8" s="199">
+        <v>0</v>
+      </c>
+      <c r="I8" s="192">
+        <v>0</v>
+      </c>
+      <c r="J8" s="200">
+        <v>0</v>
+      </c>
+      <c r="K8" s="199">
+        <v>0</v>
+      </c>
+      <c r="L8" s="192">
+        <v>0</v>
+      </c>
+      <c r="M8" s="200">
+        <v>0</v>
+      </c>
+      <c r="N8" s="199">
+        <v>0</v>
+      </c>
+      <c r="O8" s="192">
+        <v>0</v>
+      </c>
+      <c r="P8" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="199">
+        <v>0</v>
+      </c>
+      <c r="R8" s="192">
+        <v>0</v>
+      </c>
+      <c r="S8" s="200">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="200">
-        <v>0</v>
-      </c>
-      <c r="C9" s="201">
-        <v>0</v>
-      </c>
-      <c r="D9" s="209">
-        <v>0</v>
-      </c>
-      <c r="E9" s="200">
-        <v>0</v>
-      </c>
-      <c r="F9" s="201">
-        <v>0</v>
-      </c>
-      <c r="G9" s="209">
-        <v>0</v>
-      </c>
-      <c r="H9" s="200">
-        <v>0</v>
-      </c>
-      <c r="I9" s="201">
-        <v>0</v>
-      </c>
-      <c r="J9" s="209">
-        <v>0</v>
-      </c>
-      <c r="K9" s="200">
-        <v>0</v>
-      </c>
-      <c r="L9" s="201">
-        <v>0</v>
-      </c>
-      <c r="M9" s="209">
-        <v>0</v>
-      </c>
-      <c r="N9" s="200">
-        <v>0</v>
-      </c>
-      <c r="O9" s="201">
-        <v>0</v>
-      </c>
-      <c r="P9" s="209">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="200">
-        <v>0</v>
-      </c>
-      <c r="R9" s="201">
-        <v>0</v>
-      </c>
-      <c r="S9" s="209">
+      <c r="B9" s="193">
+        <v>0</v>
+      </c>
+      <c r="C9" s="194">
+        <v>0</v>
+      </c>
+      <c r="D9" s="201">
+        <v>0</v>
+      </c>
+      <c r="E9" s="193">
+        <v>0</v>
+      </c>
+      <c r="F9" s="194">
+        <v>0</v>
+      </c>
+      <c r="G9" s="201">
+        <v>0</v>
+      </c>
+      <c r="H9" s="193">
+        <v>0</v>
+      </c>
+      <c r="I9" s="194">
+        <v>0</v>
+      </c>
+      <c r="J9" s="201">
+        <v>0</v>
+      </c>
+      <c r="K9" s="193">
+        <v>0</v>
+      </c>
+      <c r="L9" s="194">
+        <v>0</v>
+      </c>
+      <c r="M9" s="201">
+        <v>0</v>
+      </c>
+      <c r="N9" s="193">
+        <v>0</v>
+      </c>
+      <c r="O9" s="194">
+        <v>0</v>
+      </c>
+      <c r="P9" s="201">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="193">
+        <v>0</v>
+      </c>
+      <c r="R9" s="194">
+        <v>0</v>
+      </c>
+      <c r="S9" s="201">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="200">
-        <v>0</v>
-      </c>
-      <c r="C10" s="201">
-        <v>0</v>
-      </c>
-      <c r="D10" s="209">
-        <v>0</v>
-      </c>
-      <c r="E10" s="200">
-        <v>0</v>
-      </c>
-      <c r="F10" s="201">
-        <v>0</v>
-      </c>
-      <c r="G10" s="209">
-        <v>0</v>
-      </c>
-      <c r="H10" s="200">
+      <c r="B10" s="193">
+        <v>0</v>
+      </c>
+      <c r="C10" s="194">
+        <v>0</v>
+      </c>
+      <c r="D10" s="201">
+        <v>0</v>
+      </c>
+      <c r="E10" s="193">
+        <v>0</v>
+      </c>
+      <c r="F10" s="194">
+        <v>0</v>
+      </c>
+      <c r="G10" s="201">
+        <v>0</v>
+      </c>
+      <c r="H10" s="193">
         <v>1</v>
       </c>
-      <c r="I10" s="201">
-        <v>0</v>
-      </c>
-      <c r="J10" s="209">
-        <v>0</v>
-      </c>
-      <c r="K10" s="200">
-        <v>0</v>
-      </c>
-      <c r="L10" s="201">
-        <v>0</v>
-      </c>
-      <c r="M10" s="209">
-        <v>0</v>
-      </c>
-      <c r="N10" s="200">
-        <v>0</v>
-      </c>
-      <c r="O10" s="201">
-        <v>0</v>
-      </c>
-      <c r="P10" s="209">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="200">
+      <c r="I10" s="194">
+        <v>0</v>
+      </c>
+      <c r="J10" s="201">
+        <v>0</v>
+      </c>
+      <c r="K10" s="193">
+        <v>0</v>
+      </c>
+      <c r="L10" s="194">
+        <v>0</v>
+      </c>
+      <c r="M10" s="201">
+        <v>0</v>
+      </c>
+      <c r="N10" s="193">
+        <v>0</v>
+      </c>
+      <c r="O10" s="194">
+        <v>0</v>
+      </c>
+      <c r="P10" s="201">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="193">
         <v>1</v>
       </c>
-      <c r="R10" s="201">
-        <v>0</v>
-      </c>
-      <c r="S10" s="209">
+      <c r="R10" s="194">
+        <v>0</v>
+      </c>
+      <c r="S10" s="201">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="210">
+      <c r="B11" s="202">
         <v>1</v>
       </c>
       <c r="C11" s="100">
         <v>0</v>
       </c>
-      <c r="D11" s="211">
-        <v>0</v>
-      </c>
-      <c r="E11" s="210">
+      <c r="D11" s="203">
+        <v>0</v>
+      </c>
+      <c r="E11" s="202">
         <v>0</v>
       </c>
       <c r="F11" s="100">
         <v>0</v>
       </c>
-      <c r="G11" s="211">
-        <v>0</v>
-      </c>
-      <c r="H11" s="210">
+      <c r="G11" s="203">
+        <v>0</v>
+      </c>
+      <c r="H11" s="202">
         <v>2</v>
       </c>
       <c r="I11" s="100">
         <v>0</v>
       </c>
-      <c r="J11" s="211">
-        <v>0</v>
-      </c>
-      <c r="K11" s="210">
+      <c r="J11" s="203">
+        <v>0</v>
+      </c>
+      <c r="K11" s="202">
         <v>1</v>
       </c>
       <c r="L11" s="100">
         <v>0</v>
       </c>
-      <c r="M11" s="211">
-        <v>0</v>
-      </c>
-      <c r="N11" s="210">
+      <c r="M11" s="203">
+        <v>0</v>
+      </c>
+      <c r="N11" s="202">
         <v>1</v>
       </c>
       <c r="O11" s="100">
         <v>0</v>
       </c>
-      <c r="P11" s="211">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="210">
+      <c r="P11" s="203">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="202">
         <v>2</v>
       </c>
       <c r="R11" s="100">
         <v>0</v>
       </c>
-      <c r="S11" s="211">
+      <c r="S11" s="203">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="151" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="98">
         <v>1</v>
       </c>
-      <c r="C12" s="212">
-        <v>0</v>
-      </c>
-      <c r="D12" s="213">
+      <c r="C12" s="204">
+        <v>0</v>
+      </c>
+      <c r="D12" s="205">
         <v>0</v>
       </c>
       <c r="E12" s="98">
         <v>0</v>
       </c>
-      <c r="F12" s="212">
-        <v>0</v>
-      </c>
-      <c r="G12" s="213">
+      <c r="F12" s="204">
+        <v>0</v>
+      </c>
+      <c r="G12" s="205">
         <v>0</v>
       </c>
       <c r="H12" s="98">
         <v>0</v>
       </c>
-      <c r="I12" s="212">
-        <v>0</v>
-      </c>
-      <c r="J12" s="213">
+      <c r="I12" s="204">
+        <v>0</v>
+      </c>
+      <c r="J12" s="205">
         <v>0</v>
       </c>
       <c r="K12" s="98">
         <v>2</v>
       </c>
-      <c r="L12" s="212">
-        <v>0</v>
-      </c>
-      <c r="M12" s="213">
+      <c r="L12" s="204">
+        <v>0</v>
+      </c>
+      <c r="M12" s="205">
         <v>0</v>
       </c>
       <c r="N12" s="98">
         <v>2</v>
       </c>
-      <c r="O12" s="212">
-        <v>0</v>
-      </c>
-      <c r="P12" s="213">
+      <c r="O12" s="204">
+        <v>0</v>
+      </c>
+      <c r="P12" s="205">
         <v>0</v>
       </c>
       <c r="Q12" s="98">
         <v>0</v>
       </c>
-      <c r="R12" s="212">
-        <v>0</v>
-      </c>
-      <c r="S12" s="213">
+      <c r="R12" s="204">
+        <v>0</v>
+      </c>
+      <c r="S12" s="205">
         <v>0</v>
       </c>
     </row>
@@ -7216,30 +7187,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244" t="s">
+      <c r="S2" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244" t="s">
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="233"/>
+      <c r="AA2" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244" t="s">
+      <c r="AB2" s="233"/>
+      <c r="AC2" s="233"/>
+      <c r="AD2" s="233"/>
+      <c r="AE2" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="244"/>
-      <c r="AG2" s="244"/>
-      <c r="AH2" s="244"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="233"/>
+      <c r="AH2" s="233"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8692,10 +8663,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="245" t="s">
+      <c r="J17" s="234" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="248" t="s">
+      <c r="K17" s="237" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8795,8 +8766,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="246"/>
-      <c r="K18" s="249"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="238"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8894,8 +8865,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="246"/>
-      <c r="K19" s="249"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="238"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -8975,8 +8946,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="249"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="238"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -9057,8 +9028,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="246"/>
-      <c r="K21" s="249"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="238"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -9139,8 +9110,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="246"/>
-      <c r="K22" s="249"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="238"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -9221,8 +9192,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="249"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="238"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -9303,8 +9274,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="246"/>
-      <c r="K24" s="249"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="238"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -9325,8 +9296,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="246"/>
-      <c r="K25" s="249"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="238"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -9335,14 +9306,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="246"/>
-      <c r="K26" s="249"/>
-      <c r="N26" s="251" t="s">
+      <c r="J26" s="235"/>
+      <c r="K26" s="238"/>
+      <c r="N26" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="252"/>
-      <c r="P26" s="252"/>
-      <c r="Q26" s="253"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="242"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -9418,14 +9389,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="246"/>
-      <c r="K27" s="249"/>
-      <c r="N27" s="251" t="s">
+      <c r="J27" s="235"/>
+      <c r="K27" s="238"/>
+      <c r="N27" s="240" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="252"/>
-      <c r="P27" s="252"/>
-      <c r="Q27" s="253"/>
+      <c r="O27" s="241"/>
+      <c r="P27" s="241"/>
+      <c r="Q27" s="242"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -9501,8 +9472,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="246"/>
-      <c r="K28" s="249"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="238"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -9514,24 +9485,24 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="249"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="238"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="246"/>
-      <c r="K30" s="249"/>
+      <c r="J30" s="235"/>
+      <c r="K30" s="238"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="246"/>
-      <c r="K31" s="249"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="238"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="246"/>
-      <c r="K32" s="249"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="238"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="247"/>
-      <c r="K33" s="250"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="239"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="82"/>
@@ -9729,9 +9700,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9740,134 +9711,132 @@
     <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
       </c>
-      <c r="B1" s="241" t="b">
+      <c r="B1" s="230" t="b">
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="243" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="str">
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
-      <c r="B2" s="242" t="b">
+      <c r="B2" s="231" t="b">
         <f>Parameters!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="255"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C2" s="244"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
       </c>
-      <c r="B3" s="242" t="str">
+      <c r="B3" s="231" t="str">
         <f>Bacteria!B6</f>
         <v>suspension</v>
       </c>
-      <c r="C3" s="255"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C3" s="244"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
         <f>Bacteria!A12</f>
         <v>kDist</v>
       </c>
-      <c r="B4" s="242">
+      <c r="B4" s="231">
         <f>Bacteria!B12</f>
         <v>1.5</v>
       </c>
-      <c r="C4" s="255"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C4" s="244"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
         <f>Bacteria!A13</f>
         <v>Inactivation enabled</v>
       </c>
-      <c r="B5" s="242" t="b">
+      <c r="B5" s="231" t="b">
         <f>Bacteria!B13</f>
         <v>1</v>
       </c>
-      <c r="C5" s="255"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C5" s="244"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
       </c>
-      <c r="B6" s="242" t="b">
+      <c r="B6" s="231" t="b">
         <f>Solver!B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="255"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C6" s="244"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
       </c>
-      <c r="B7" s="242" t="b">
+      <c r="B7" s="231" t="b">
         <f>Solver!B2</f>
         <v>0</v>
       </c>
-      <c r="C7" s="255"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="244"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
       </c>
-      <c r="B8" s="243" t="b">
+      <c r="B8" s="232" t="b">
         <f>Solver!B5</f>
         <v>0</v>
       </c>
-      <c r="C8" s="255"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="244"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="str">
         <f>Solver!A11</f>
         <v>Structure model</v>
       </c>
-      <c r="B9" s="242" t="b">
+      <c r="B9" s="231" t="b">
         <f>Solver!B11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="255"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="244"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="str">
         <f>Solver!A12</f>
         <v>Structure model type</v>
       </c>
-      <c r="B10" s="243" t="str">
+      <c r="B10" s="232" t="str">
         <f>IF(B9=FALSE,"-",Solver!B12)</f>
         <v>-</v>
       </c>
-      <c r="C10" s="256"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="215"/>
-      <c r="G11" s="214"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="215"/>
-      <c r="G12" s="214"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="215"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="215"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="215"/>
+      <c r="C10" s="245"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="206"/>
+    </row>
+    <row r="12" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="206"/>
+    </row>
+    <row r="13" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="206"/>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="206"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9908,7 +9877,7 @@
       <c r="D1" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="257" t="s">
+      <c r="E1" s="246" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9916,7 +9885,7 @@
       <c r="A2" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="131">
+      <c r="B2" s="129">
         <v>257</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -9925,7 +9894,7 @@
       <c r="D2" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="257"/>
+      <c r="E2" s="246"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
@@ -9941,7 +9910,7 @@
       <c r="D3" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="257"/>
+      <c r="E3" s="246"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -9957,7 +9926,7 @@
       <c r="D4" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="257"/>
+      <c r="E4" s="246"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
@@ -9972,7 +9941,7 @@
       <c r="D5" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="257"/>
+      <c r="E5" s="246"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -9987,7 +9956,7 @@
       <c r="D6" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="257"/>
+      <c r="E6" s="246"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
@@ -10003,7 +9972,7 @@
       <c r="D7" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="257"/>
+      <c r="E7" s="246"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
@@ -10019,7 +9988,7 @@
       <c r="D8" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="258"/>
+      <c r="E8" s="247"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
@@ -10034,7 +10003,7 @@
       <c r="D9" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="259" t="s">
+      <c r="E9" s="248" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10051,7 +10020,7 @@
       <c r="D10" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="260"/>
+      <c r="E10" s="249"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
@@ -10067,7 +10036,7 @@
       <c r="D11" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="260"/>
+      <c r="E11" s="249"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
@@ -10082,7 +10051,7 @@
       <c r="D12" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="260"/>
+      <c r="E12" s="249"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
@@ -10097,7 +10066,7 @@
       <c r="D13" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="260"/>
+      <c r="E13" s="249"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
@@ -10107,28 +10076,28 @@
         <f>7*B13</f>
         <v>672</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="92" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="261"/>
+      <c r="E14" s="250"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="132" t="b">
+      <c r="B15" s="130" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="122" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="259" t="s">
+      <c r="E15" s="248" t="s">
         <v>164</v>
       </c>
     </row>
@@ -10145,7 +10114,7 @@
       <c r="D16" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="260"/>
+      <c r="E16" s="249"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
@@ -10161,7 +10130,7 @@
       <c r="D17" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="260"/>
+      <c r="E17" s="249"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
@@ -10176,7 +10145,7 @@
       <c r="D18" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="260"/>
+      <c r="E18" s="249"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
@@ -10192,7 +10161,7 @@
       <c r="D19" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="260"/>
+      <c r="E19" s="249"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
@@ -10207,7 +10176,7 @@
       <c r="D20" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="260"/>
+      <c r="E20" s="249"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="106" t="s">
@@ -10216,13 +10185,13 @@
       <c r="B21" s="107">
         <v>0.5</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="260"/>
+      <c r="E21" s="249"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
@@ -10231,13 +10200,13 @@
       <c r="B22" s="100">
         <v>3</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="260"/>
+      <c r="E22" s="249"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
@@ -10246,13 +10215,13 @@
       <c r="B23" s="100">
         <v>1000</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="260"/>
+      <c r="E23" s="249"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
@@ -10261,13 +10230,13 @@
       <c r="B24" s="100">
         <v>200</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D24" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="260"/>
+      <c r="E24" s="249"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
@@ -10276,13 +10245,13 @@
       <c r="B25" s="100">
         <v>20</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="260"/>
+      <c r="E25" s="249"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
@@ -10291,13 +10260,13 @@
       <c r="B26" s="117">
         <v>0.2</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="260"/>
+      <c r="E26" s="249"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
@@ -10307,13 +10276,13 @@
         <f>1*10^(-10)</f>
         <v>1E-10</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="260"/>
+      <c r="E27" s="249"/>
     </row>
     <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="89" t="s">
@@ -10322,13 +10291,13 @@
       <c r="B28" s="118">
         <v>0.02</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="92" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="261"/>
+      <c r="E28" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10372,7 +10341,7 @@
       <c r="A1" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="130">
+      <c r="B1" s="128">
         <v>140</v>
       </c>
       <c r="C1" s="90" t="s">
@@ -10418,10 +10387,10 @@
       <c r="A4" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="123" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="121" t="s">
@@ -10448,7 +10417,7 @@
       <c r="A6" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="150">
+      <c r="B6" s="145">
         <f>B5+273.15</f>
         <v>293.14999999999998</v>
       </c>
@@ -10464,7 +10433,7 @@
       <c r="A7" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="151">
+      <c r="B7" s="146">
         <v>7</v>
       </c>
       <c r="C7" s="90" t="s">
@@ -10479,7 +10448,7 @@
       <c r="A8" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="126">
+      <c r="B8" s="124">
         <f>1.2*B11/B12 * 4/3 * PI() *B10^3</f>
         <v>1.3804158119873546E-10</v>
       </c>
@@ -10508,17 +10477,17 @@
       <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="208" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="155">
+      <c r="B10" s="149">
         <f>65*10^(-6)</f>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="C10" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="138" t="s">
         <v>270</v>
       </c>
       <c r="E10" s="69"/>
@@ -10527,7 +10496,7 @@
       <c r="A11" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="231">
+      <c r="B11" s="221">
         <v>100</v>
       </c>
       <c r="C11" s="90" t="s">
@@ -10541,7 +10510,7 @@
       <c r="A12" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="231">
+      <c r="B12" s="221">
         <v>1</v>
       </c>
       <c r="C12" s="90" t="s">
@@ -10688,7 +10657,7 @@
       <c r="D1" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="262" t="s">
+      <c r="E1" s="251" t="s">
         <v>178</v>
       </c>
     </row>
@@ -10706,7 +10675,7 @@
       <c r="D2" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="262"/>
+      <c r="E2" s="251"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
@@ -10722,7 +10691,7 @@
       <c r="D3" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="262"/>
+      <c r="E3" s="251"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
@@ -10738,7 +10707,7 @@
       <c r="D4" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="262"/>
+      <c r="E4" s="251"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
@@ -10754,7 +10723,7 @@
       <c r="D5" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="262"/>
+      <c r="E5" s="251"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
@@ -10770,13 +10739,13 @@
       <c r="D6" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="262"/>
+      <c r="E6" s="251"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="125">
         <f>1.334*10^(-9)*3600*0.7</f>
         <v>3.3616800000000002E-6</v>
       </c>
@@ -10786,7 +10755,7 @@
       <c r="D7" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="263"/>
+      <c r="E7" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10826,7 +10795,7 @@
       <c r="C1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="126" t="s">
         <v>188</v>
       </c>
     </row>
@@ -10841,7 +10810,7 @@
       <c r="C2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="126" t="s">
         <v>189</v>
       </c>
     </row>
@@ -10849,14 +10818,14 @@
       <c r="A3" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="127">
         <f>(1)*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C3" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="126" t="s">
         <v>190</v>
       </c>
     </row>
@@ -10864,14 +10833,14 @@
       <c r="A4" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="127">
         <f>500*1000</f>
         <v>500000</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="126" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10879,27 +10848,27 @@
       <c r="A5" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="135">
+      <c r="B5" s="133">
         <v>24.6</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="126" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="223" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="137" t="s">
         <v>273</v>
       </c>
     </row>
@@ -10907,14 +10876,14 @@
       <c r="A7" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="129">
+      <c r="B7" s="127">
         <f>25*10^(-6)</f>
         <v>2.4999999999999998E-5</v>
       </c>
       <c r="C7" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="126" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10922,42 +10891,42 @@
       <c r="A8" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="128">
         <f>_xlfn.CEILING.MATH((B7^2 / (0.8*B3 * B12)^2) * 0.75)</f>
         <v>326</v>
       </c>
       <c r="C8" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="126" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="217" t="s">
+      <c r="A9" s="208" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="130">
+      <c r="B9" s="128">
         <v>12</v>
       </c>
-      <c r="C9" s="236" t="s">
+      <c r="C9" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="237" t="s">
+      <c r="D9" s="226" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="227" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="235">
+      <c r="B10" s="224">
         <v>12</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="132" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10965,14 +10934,14 @@
       <c r="A11" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="130">
+      <c r="B11" s="128">
         <f>ROUND(((B16)^2)/((B3)^2),0)</f>
         <v>64009</v>
       </c>
       <c r="C11" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="126" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10980,13 +10949,13 @@
       <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="128">
         <v>1.5</v>
       </c>
       <c r="C12" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="126" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10994,27 +10963,27 @@
       <c r="A13" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="135" t="b">
+      <c r="B13" s="133" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="126" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="137" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11022,13 +10991,13 @@
       <c r="A15" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="130">
+      <c r="B15" s="128">
         <v>0.05</v>
       </c>
       <c r="C15" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="126" t="s">
         <v>203</v>
       </c>
     </row>
@@ -11036,14 +11005,14 @@
       <c r="A16" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="131">
         <f>Discretization!B3/2/1000000 - 2*Discretization!B5</f>
         <v>2.5300000000000002E-4</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="132" t="s">
         <v>193</v>
       </c>
     </row>
@@ -11054,8 +11023,8 @@
       <c r="D17" s="69"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="146"/>
-      <c r="C18" s="230"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="220"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="94"/>
@@ -11068,14 +11037,13 @@
       <c r="E20" s="69"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="229"/>
+      <c r="B21" s="219"/>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
       <c r="E21" s="94"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="232"/>
-      <c r="C22" s="233"/>
+      <c r="B22" s="222"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:D15">
@@ -11132,13 +11100,13 @@
       <c r="A1" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="129">
+      <c r="B1" s="127">
         <v>1E-8</v>
       </c>
       <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="126" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11146,13 +11114,13 @@
       <c r="A2" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="130" t="b">
+      <c r="B2" s="128" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="126" t="s">
         <v>215</v>
       </c>
     </row>
@@ -11160,13 +11128,13 @@
       <c r="A3" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="127">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="C3" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="126" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11174,13 +11142,13 @@
       <c r="A4" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="130" t="b">
+      <c r="B4" s="128" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="126" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11188,13 +11156,13 @@
       <c r="A5" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="226" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="124" t="s">
+      <c r="B5" s="217" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="132" t="s">
         <v>250</v>
       </c>
     </row>
@@ -11202,14 +11170,14 @@
       <c r="A6" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="127">
         <f>1*10^(-8)</f>
         <v>1E-8</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="126" t="s">
         <v>218</v>
       </c>
     </row>
@@ -11217,13 +11185,13 @@
       <c r="A7" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="130">
+      <c r="B7" s="128">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="126" t="s">
         <v>283</v>
       </c>
     </row>
@@ -11231,13 +11199,13 @@
       <c r="A8" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="128" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="126" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11245,13 +11213,13 @@
       <c r="A9" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="130">
+      <c r="B9" s="128">
         <v>2</v>
       </c>
       <c r="C9" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="126" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11259,13 +11227,13 @@
       <c r="A10" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="226" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="227" t="s">
+      <c r="B10" s="217" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="228" t="s">
+      <c r="D10" s="218" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11273,13 +11241,13 @@
       <c r="A11" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="130" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="138" t="s">
         <v>248</v>
       </c>
     </row>
@@ -11287,13 +11255,13 @@
       <c r="A12" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="138" t="s">
         <v>249</v>
       </c>
     </row>
@@ -11349,17 +11317,17 @@
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="129">
+      <c r="B1" s="127">
         <f>500*10^(-6)</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="264" t="s">
+      <c r="E1" s="253" t="s">
         <v>222</v>
       </c>
       <c r="F1" s="69"/>
@@ -11372,17 +11340,17 @@
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="129">
+      <c r="B2" s="127">
         <f>375*10^(-6)</f>
         <v>3.7500000000000001E-4</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="264"/>
+      <c r="E2" s="253"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
@@ -11393,17 +11361,17 @@
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="127">
         <f>1*10^(-20)</f>
         <v>9.9999999999999995E-21</v>
       </c>
       <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="264"/>
+      <c r="E3" s="253"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
@@ -11414,17 +11382,17 @@
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="127">
         <f>1*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="264"/>
+      <c r="E4" s="253"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
@@ -11435,16 +11403,16 @@
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="127">
         <v>1E-3</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="264"/>
+      <c r="E5" s="253"/>
       <c r="F5" s="94"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
@@ -11455,17 +11423,17 @@
       <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="127">
         <f>B1/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="264"/>
+      <c r="E6" s="253"/>
       <c r="F6" s="94"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
@@ -11476,17 +11444,17 @@
       <c r="A7" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="129">
+      <c r="B7" s="127">
         <f>B5</f>
         <v>1E-3</v>
       </c>
       <c r="C7" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="264"/>
+      <c r="E7" s="253"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>

--- a/planning/Excels/Templates/CmxNitrospira_template.xlsx
+++ b/planning/Excels/Templates/CmxNitrospira_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55FD11-73FD-4E88-B63A-BCB0E6D51C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E12D03D-F697-46A3-A1F9-488B6C5F0D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="284">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -1445,9 +1445,6 @@
   </si>
   <si>
     <t>NOB</t>
-  </si>
-  <si>
-    <t>Yield C/N</t>
   </si>
   <si>
     <t>Average expected granule radius</t>
@@ -5805,7 +5802,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="101">
         <v>9.9999999999999995E-7</v>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="101">
         <v>0</v>
@@ -5986,7 +5983,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6001,7 +5998,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="147" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="C1" s="147" t="s">
         <v>72</v>
@@ -6108,7 +6105,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="101">
         <v>1.4999999999999999E-2</v>
@@ -6185,7 +6182,7 @@
       <c r="O1" s="259"/>
       <c r="P1" s="260"/>
       <c r="Q1" s="259" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R1" s="259"/>
       <c r="S1" s="260"/>
@@ -10456,7 +10453,7 @@
         <v>98</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="69"/>
     </row>
@@ -10478,7 +10475,7 @@
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="149">
         <f>65*10^(-6)</f>
@@ -10488,36 +10485,36 @@
         <v>94</v>
       </c>
       <c r="D10" s="138" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="69"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="221">
         <v>100</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="221">
         <v>1</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -10863,13 +10860,13 @@
         <v>212</v>
       </c>
       <c r="B6" s="223" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="136" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -10904,7 +10901,7 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="208" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" s="128">
         <v>12</v>
@@ -10913,12 +10910,12 @@
         <v>97</v>
       </c>
       <c r="D9" s="226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="224">
         <v>12</v>
@@ -10927,7 +10924,7 @@
         <v>97</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -10978,7 +10975,7 @@
         <v>199</v>
       </c>
       <c r="B14" s="135" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" s="136" t="s">
         <v>97</v>
@@ -11189,10 +11186,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="126" t="s">
         <v>282</v>
-      </c>
-      <c r="D7" s="126" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
